--- a/8月制作内容/编剧文档/六部+剧情大纲+0806.xlsx
+++ b/8月制作内容/编剧文档/六部+剧情大纲+0806.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12480"/>
+    <workbookView windowWidth="29040" windowHeight="12795"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -376,9 +376,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -434,46 +434,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -486,14 +448,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -501,47 +455,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -563,10 +478,79 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -577,6 +561,22 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -587,187 +587,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -781,11 +781,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -793,8 +814,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -814,17 +835,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -846,30 +861,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -878,6 +869,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -886,10 +886,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -898,137 +898,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1058,9 +1058,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2195,8 +2192,8 @@
   <sheetPr/>
   <dimension ref="D3:N185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="E185" sqref="E185"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="E136" sqref="E136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2740,7 +2737,7 @@
       </c>
     </row>
     <row r="179" spans="4:5">
-      <c r="D179" s="11" t="s">
+      <c r="D179" s="10" t="s">
         <v>111</v>
       </c>
       <c r="E179" t="s">
